--- a/data/trans_dic/P38B-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P38B-Habitat-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8031129277506756</v>
+        <v>0.8003727055614893</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.803978798133327</v>
+        <v>0.8038241464370399</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8256555340512901</v>
+        <v>0.8236457603080355</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8354582942294111</v>
+        <v>0.8342390821702368</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8503432942727064</v>
+        <v>0.8508668953721858</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8919977040908584</v>
+        <v>0.8940598044422767</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8280002485195456</v>
+        <v>0.8250446443102001</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8368118810270017</v>
+        <v>0.8387283574402269</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8720549471142157</v>
+        <v>0.8708876557199535</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8591807488190492</v>
+        <v>0.8567834016253242</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8637037708826284</v>
+        <v>0.8640553674693252</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8984295859016219</v>
+        <v>0.8972362078115007</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.887072906463292</v>
+        <v>0.887651480803869</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.900140032536209</v>
+        <v>0.9009447723353901</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9359195418270065</v>
+        <v>0.9349140930260569</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8660563042177765</v>
+        <v>0.8647442430814382</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8744323644348765</v>
+        <v>0.8758860809834452</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9135577626287856</v>
+        <v>0.9118494974783957</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.9077271933811427</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.8435261374570666</v>
+        <v>0.8435261374570667</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.8390230576502162</v>
@@ -773,7 +773,7 @@
         <v>0.8650312735307332</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.8082487272216949</v>
+        <v>0.8082487272216948</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7865072215932767</v>
+        <v>0.7895037164510121</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7964098714692285</v>
+        <v>0.7955808122177058</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7389479373782379</v>
+        <v>0.7387027537726611</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8422147647977553</v>
+        <v>0.8412608368935488</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.889288323724541</v>
+        <v>0.8893116101491872</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8204741173255158</v>
+        <v>0.8196880967463057</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8219231952589718</v>
+        <v>0.821494086416253</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8497592863772263</v>
+        <v>0.8491011182288577</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7868726110587296</v>
+        <v>0.7868367516989582</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.838507324138719</v>
+        <v>0.8403577645313625</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8441775693261314</v>
+        <v>0.8457190803982865</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8001688327876305</v>
+        <v>0.8021601837234521</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8845269066433693</v>
+        <v>0.8833331345570411</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9237514053799439</v>
+        <v>0.9244342432420207</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8644333523268196</v>
+        <v>0.8642797416548516</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8557748398377288</v>
+        <v>0.8548424015311019</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8798089375294781</v>
+        <v>0.8797759006411389</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8259652773482576</v>
+        <v>0.8274339479589901</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.8811593971421361</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.8616962825824865</v>
+        <v>0.8616962825824867</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.8676656769014922</v>
@@ -882,7 +882,7 @@
         <v>0.8474996343416938</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.8237643665082989</v>
+        <v>0.823764366508299</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8004899787958432</v>
+        <v>0.8040784381722945</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7821765059817374</v>
+        <v>0.7782583433850283</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7448362354942893</v>
+        <v>0.7471244136116426</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8805731426585767</v>
+        <v>0.8785206438554314</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8568972038352877</v>
+        <v>0.8561037868033007</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8323554954769546</v>
+        <v>0.8307883020849985</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8500302353559664</v>
+        <v>0.8481619891331166</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8268191870731701</v>
+        <v>0.8277993090096279</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7992529355793939</v>
+        <v>0.8001257200408241</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8596399336820988</v>
+        <v>0.8580484226946403</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8408439724983668</v>
+        <v>0.8385980047901898</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8213271609822311</v>
+        <v>0.8220138230686226</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9226845990997437</v>
+        <v>0.9216261076887199</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9018780084969907</v>
+        <v>0.9021532164146743</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.887637820277911</v>
+        <v>0.8871344800240933</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8853982297911714</v>
+        <v>0.884664896839804</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8649307562216446</v>
+        <v>0.8651225906193863</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8469928932026353</v>
+        <v>0.8462238981210117</v>
       </c>
     </row>
     <row r="13">
@@ -991,7 +991,7 @@
         <v>0.8210688966885621</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.8283014938052047</v>
+        <v>0.8283014938052046</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7870689107855867</v>
+        <v>0.7899343747380868</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.782083764095317</v>
+        <v>0.7809418656688305</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7579754495796361</v>
+        <v>0.7585342939797585</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8594591429074128</v>
+        <v>0.8615490816884155</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8080386085253553</v>
+        <v>0.8062194954118137</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8361219801525517</v>
+        <v>0.8354702043784096</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8328348512469756</v>
+        <v>0.8347998696602342</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.804126144238889</v>
+        <v>0.801844348995181</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8074523373428604</v>
+        <v>0.8083423951057153</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8390399664320121</v>
+        <v>0.8403358281692146</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8331242315800905</v>
+        <v>0.833382986362191</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8216553030814979</v>
+        <v>0.822839302494593</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9007212501688658</v>
+        <v>0.9031692377317285</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8522928026409528</v>
+        <v>0.8550122180794787</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8803733317558897</v>
+        <v>0.8808090247276564</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8656482962386135</v>
+        <v>0.8652658480683187</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8384674353125767</v>
+        <v>0.8371081677672693</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8458386973384646</v>
+        <v>0.8457285806688424</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.8740722453243587</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.8669795389390964</v>
+        <v>0.8669795389390962</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.8501564571320428</v>
@@ -1100,7 +1100,7 @@
         <v>0.8471071612511355</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.8341567502621414</v>
+        <v>0.8341567502621415</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8075067743341079</v>
+        <v>0.807702800485779</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8055806922327826</v>
+        <v>0.8058150668163038</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7821979010552818</v>
+        <v>0.7820889917171772</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8666789605291093</v>
+        <v>0.8659651706006887</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8628801446396743</v>
+        <v>0.8636988570506248</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8542067625481629</v>
+        <v>0.8556725262695388</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8411790279224783</v>
+        <v>0.8422142420477627</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8389437205996593</v>
+        <v>0.8376002457665672</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8229666223866872</v>
+        <v>0.8242717290345771</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8349773044667589</v>
+        <v>0.8339655902074863</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8320346536357961</v>
+        <v>0.8330872340829878</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.816301833541657</v>
+        <v>0.8167165110199087</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8887581153772283</v>
+        <v>0.8878937164024245</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8846268927390782</v>
+        <v>0.8844429438728175</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8792815530108368</v>
+        <v>0.8788568320472572</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8586915232091314</v>
+        <v>0.8593632250163696</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8552141896373001</v>
+        <v>0.8556914239756814</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.8436003780552088</v>
+        <v>0.8445457446705201</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>564200</v>
+        <v>562275</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>540240</v>
+        <v>540136</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>570289</v>
+        <v>568900</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>577810</v>
+        <v>576966</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>569635</v>
+        <v>569986</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>651630</v>
+        <v>653137</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1154335</v>
+        <v>1150215</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1122874</v>
+        <v>1125445</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1239398</v>
+        <v>1237739</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>603588</v>
+        <v>601904</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>580373</v>
+        <v>580609</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>620554</v>
+        <v>619730</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>613507</v>
+        <v>613907</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>602993</v>
+        <v>603532</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>683716</v>
+        <v>682982</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1207390</v>
+        <v>1205561</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1173354</v>
+        <v>1175305</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1298383</v>
+        <v>1295955</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>796570</v>
+        <v>799605</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>805569</v>
+        <v>804730</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>774357</v>
+        <v>774100</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>865726</v>
+        <v>864745</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>925791</v>
+        <v>925815</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>878025</v>
+        <v>877184</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1677308</v>
+        <v>1676432</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1744171</v>
+        <v>1742820</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1666645</v>
+        <v>1666569</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>849235</v>
+        <v>851109</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>853886</v>
+        <v>855445</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>838511</v>
+        <v>840598</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>909219</v>
+        <v>907992</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>961669</v>
+        <v>962379</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>925068</v>
+        <v>924904</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1746389</v>
+        <v>1744486</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1805849</v>
+        <v>1805781</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1749446</v>
+        <v>1752556</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>599332</v>
+        <v>602019</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>586149</v>
+        <v>583213</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>597423</v>
+        <v>599258</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>678885</v>
+        <v>677303</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>671034</v>
+        <v>670412</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>675592</v>
+        <v>674320</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1291761</v>
+        <v>1288922</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1267083</v>
+        <v>1268585</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1289793</v>
+        <v>1291201</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>643618</v>
+        <v>642427</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>630113</v>
+        <v>628430</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>658775</v>
+        <v>659326</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>711351</v>
+        <v>710535</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>706258</v>
+        <v>706473</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>720463</v>
+        <v>720054</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1345509</v>
+        <v>1344394</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1325488</v>
+        <v>1325782</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1366833</v>
+        <v>1365592</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>738903</v>
+        <v>741594</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>728395</v>
+        <v>727332</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>750443</v>
+        <v>750996</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>900697</v>
+        <v>902887</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>840089</v>
+        <v>838197</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>934447</v>
+        <v>933719</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1654664</v>
+        <v>1658568</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1584945</v>
+        <v>1580448</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1701835</v>
+        <v>1703711</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>787694</v>
+        <v>788911</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>775932</v>
+        <v>776173</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>813490</v>
+        <v>814662</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>943939</v>
+        <v>946504</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>886098</v>
+        <v>888925</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>983903</v>
+        <v>984390</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1719857</v>
+        <v>1719097</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1652633</v>
+        <v>1649954</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1782740</v>
+        <v>1782508</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2747802</v>
+        <v>2748469</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2710129</v>
+        <v>2710917</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2761765</v>
+        <v>2761380</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3066711</v>
+        <v>3064186</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3049156</v>
+        <v>3052049</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3186134</v>
+        <v>3191601</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>5838863</v>
+        <v>5846049</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>5786940</v>
+        <v>5777673</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5975320</v>
+        <v>5984796</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2841279</v>
+        <v>2837836</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2799125</v>
+        <v>2802666</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2882178</v>
+        <v>2883642</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>3144838</v>
+        <v>3141779</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>3126003</v>
+        <v>3125352</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>3279661</v>
+        <v>3278077</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>5960423</v>
+        <v>5965085</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>5899172</v>
+        <v>5902464</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>6125136</v>
+        <v>6132000</v>
       </c>
     </row>
     <row r="24">
